--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_014.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_014.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="116">
   <si>
     <t>Sezione</t>
   </si>
@@ -284,13 +284,13 @@
     <t>evento.padre</t>
   </si>
   <si>
-    <t>Atto da trascrivere</t>
+    <t>Sentenza Tribunale Italiano</t>
   </si>
   <si>
     <t>Data formazione documento</t>
   </si>
   <si>
-    <t>evento.trascrizioneNascita.atto.enteEstero</t>
+    <t>evento.enteDichiarante</t>
   </si>
   <si>
     <t>dataTrascrizione</t>
@@ -308,18 +308,6 @@
     <t>nomeEnte</t>
   </si>
   <si>
-    <t>Stato ente</t>
-  </si>
-  <si>
-    <t>nazioneEnte</t>
-  </si>
-  <si>
-    <t>Stato ente - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeNazioneEnte</t>
-  </si>
-  <si>
     <t>Provincia ente</t>
   </si>
   <si>
@@ -344,19 +332,19 @@
     <t>nomeComuneEnte</t>
   </si>
   <si>
-    <t>Autorità mittente</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneNascita.autoritaMittente</t>
-  </si>
-  <si>
-    <t>Dati della trascrizione</t>
+    <t>Dati generali</t>
+  </si>
+  <si>
+    <t>Nuovo nome</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneNascita</t>
+  </si>
+  <si>
+    <t>nuovoNome</t>
   </si>
   <si>
     <t>Nuovo cognome</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneNascita</t>
   </si>
   <si>
     <t>nuovoCognome</t>
@@ -430,16 +418,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G89"/>
+  <dimension ref="A1:G83"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="20.3984375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="25.390625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="32.41796875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="40.45703125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="24.79296875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
@@ -1992,7 +1980,7 @@
         <v>102</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>92</v>
@@ -2012,7 +2000,7 @@
         <v>104</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>92</v>
@@ -2026,19 +2014,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>9</v>
@@ -2046,19 +2034,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="E81" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>9</v>
@@ -2066,19 +2054,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>9</v>
@@ -2086,141 +2074,21 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F89" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_014.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_014.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="118">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -60,6 +63,9 @@
   </si>
   <si>
     <t>numeroatto</t>
+  </si>
+  <si>
+    <t>obbligatoria</t>
   </si>
   <si>
     <t>Data formazione</t>
@@ -418,7 +424,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -430,6 +436,7 @@
     <col min="4" max="4" width="24.79296875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -451,45 +458,54 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -511,1585 +527,1825 @@
       <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="E34" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="E74" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="E81" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_014.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_014.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -436,7 +436,7 @@
     <col min="4" max="4" width="24.79296875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_014.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_014.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="119">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,25 +32,28 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Decreto del Tribunale</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>193.13</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Decreto del Tribunale</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>193.13</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -528,1824 +531,1824 @@
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="E33" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_014.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_014.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="121">
   <si>
     <t>Sezione</t>
   </si>
@@ -162,6 +162,12 @@
   </si>
   <si>
     <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
   </si>
   <si>
     <t>Nazionalità</t>
@@ -427,7 +433,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H83"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -887,7 +893,7 @@
         <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>28</v>
@@ -979,7 +985,7 @@
         <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>28</v>
@@ -1088,19 +1094,19 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C29" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
@@ -1111,19 +1117,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
@@ -1134,19 +1140,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
@@ -1157,19 +1163,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1180,19 +1186,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1203,19 +1209,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="E34" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1226,19 +1232,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1249,19 +1255,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1272,19 +1278,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1295,19 +1301,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1318,19 +1324,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1341,19 +1347,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1364,7 +1370,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>78</v>
@@ -1373,10 +1379,10 @@
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1387,7 +1393,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>79</v>
@@ -1396,10 +1402,10 @@
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1410,19 +1416,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1433,19 +1439,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1456,7 +1462,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>82</v>
@@ -1465,10 +1471,10 @@
         <v>27</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1479,7 +1485,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>83</v>
@@ -1488,10 +1494,10 @@
         <v>27</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1502,7 +1508,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>84</v>
@@ -1511,10 +1517,10 @@
         <v>27</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1525,19 +1531,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1548,19 +1554,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1571,19 +1577,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1594,19 +1600,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1617,19 +1623,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1640,19 +1646,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1663,19 +1669,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1686,19 +1692,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1709,19 +1715,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1732,19 +1738,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1755,19 +1761,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1778,7 +1784,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>74</v>
@@ -1787,10 +1793,10 @@
         <v>27</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1801,7 +1807,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>75</v>
@@ -1810,10 +1816,10 @@
         <v>27</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1824,19 +1830,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1847,19 +1853,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1870,19 +1876,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1893,19 +1899,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1916,19 +1922,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1939,19 +1945,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1962,19 +1968,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -1985,19 +1991,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2008,19 +2014,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2031,19 +2037,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2054,19 +2060,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2077,19 +2083,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2103,16 +2109,16 @@
         <v>93</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E73" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2126,16 +2132,16 @@
         <v>93</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2149,16 +2155,16 @@
         <v>93</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2169,19 +2175,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2192,19 +2198,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2215,19 +2221,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2238,19 +2244,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2261,19 +2267,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2284,19 +2290,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2307,19 +2313,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2330,24 +2336,93 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="2" t="s">
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E83" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G83" s="2" t="s">
+      <c r="B86" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_014.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_014.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="131">
   <si>
     <t>Sezione</t>
   </si>
@@ -224,6 +224,30 @@
     <t>indirizzoResidenza</t>
   </si>
   <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
     <t>Madre</t>
   </si>
   <si>
@@ -291,6 +315,12 @@
   </si>
   <si>
     <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Trasmissione residenza estera</t>
+  </si>
+  <si>
+    <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
     <t>Padre</t>
@@ -433,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H86"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -443,7 +473,7 @@
     <col min="2" max="2" width="32.41796875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="24.79296875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
@@ -1117,19 +1147,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C30" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
@@ -1140,19 +1170,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
@@ -1163,19 +1193,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1186,19 +1216,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1209,19 +1239,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1232,19 +1262,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1255,19 +1285,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1278,19 +1308,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1301,19 +1331,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1324,19 +1354,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1347,19 +1377,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1370,19 +1400,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1393,19 +1423,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="E42" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1416,19 +1446,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1439,19 +1469,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1462,19 +1492,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1485,19 +1515,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1508,19 +1538,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1531,19 +1561,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1554,19 +1584,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1577,19 +1607,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1600,19 +1630,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1623,19 +1653,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1646,19 +1676,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1669,19 +1699,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1692,19 +1722,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1715,19 +1745,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1738,19 +1768,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1761,19 +1791,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1784,7 +1814,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>74</v>
@@ -1793,10 +1823,10 @@
         <v>27</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1807,19 +1837,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1830,19 +1860,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1853,19 +1883,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1876,19 +1906,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1899,19 +1929,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1922,19 +1952,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1945,7 +1975,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>80</v>
@@ -1954,10 +1984,10 @@
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1968,7 +1998,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>81</v>
@@ -1977,10 +2007,10 @@
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -1991,7 +2021,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>82</v>
@@ -2000,10 +2030,10 @@
         <v>27</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2014,7 +2044,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>83</v>
@@ -2023,10 +2053,10 @@
         <v>27</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2037,7 +2067,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>84</v>
@@ -2046,10 +2076,10 @@
         <v>27</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2060,7 +2090,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>85</v>
@@ -2069,10 +2099,10 @@
         <v>27</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2083,19 +2113,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2106,19 +2136,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2129,19 +2159,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2152,19 +2182,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2175,19 +2205,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2198,19 +2228,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2221,19 +2251,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2244,19 +2274,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2267,19 +2297,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2290,19 +2320,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2313,19 +2343,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2336,19 +2366,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2359,19 +2389,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2382,19 +2412,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2405,24 +2435,346 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="C92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E86" s="2" t="s">
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F86" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G86" s="2" t="s">
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_014.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_014.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="132">
   <si>
     <t>Sezione</t>
   </si>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t>evento.madre</t>
+  </si>
+  <si>
+    <t>opzionale</t>
   </si>
   <si>
     <t>Stato di nascita</t>
@@ -1257,7 +1260,7 @@
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35">
@@ -1280,7 +1283,7 @@
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36">
@@ -1303,7 +1306,7 @@
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37">
@@ -1326,7 +1329,7 @@
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38">
@@ -1334,7 +1337,7 @@
         <v>78</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
@@ -1349,7 +1352,7 @@
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39">
@@ -1357,7 +1360,7 @@
         <v>78</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
@@ -1372,7 +1375,7 @@
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40">
@@ -1380,7 +1383,7 @@
         <v>78</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>27</v>
@@ -1395,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41">
@@ -1403,7 +1406,7 @@
         <v>78</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>27</v>
@@ -1418,7 +1421,7 @@
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42">
@@ -1426,7 +1429,7 @@
         <v>78</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>27</v>
@@ -1441,7 +1444,7 @@
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43">
@@ -1449,7 +1452,7 @@
         <v>78</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>27</v>
@@ -1464,7 +1467,7 @@
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44">
@@ -1487,7 +1490,7 @@
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45">
@@ -1495,7 +1498,7 @@
         <v>78</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
@@ -1510,7 +1513,7 @@
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46">
@@ -1518,7 +1521,7 @@
         <v>78</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
@@ -1533,7 +1536,7 @@
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47">
@@ -1541,7 +1544,7 @@
         <v>78</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
@@ -1556,7 +1559,7 @@
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48">
@@ -1564,7 +1567,7 @@
         <v>78</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
@@ -1579,7 +1582,7 @@
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49">
@@ -1587,7 +1590,7 @@
         <v>78</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>27</v>
@@ -1602,7 +1605,7 @@
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50">
@@ -1610,7 +1613,7 @@
         <v>78</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>27</v>
@@ -1625,7 +1628,7 @@
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51">
@@ -1633,7 +1636,7 @@
         <v>78</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>27</v>
@@ -1648,7 +1651,7 @@
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52">
@@ -1656,7 +1659,7 @@
         <v>78</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>27</v>
@@ -1671,7 +1674,7 @@
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53">
@@ -1679,7 +1682,7 @@
         <v>78</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>27</v>
@@ -1694,7 +1697,7 @@
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54">
@@ -1702,7 +1705,7 @@
         <v>78</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
@@ -1711,13 +1714,13 @@
         <v>79</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55">
@@ -1725,7 +1728,7 @@
         <v>78</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
@@ -1734,13 +1737,13 @@
         <v>79</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56">
@@ -1748,7 +1751,7 @@
         <v>78</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
@@ -1757,13 +1760,13 @@
         <v>79</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57">
@@ -1786,7 +1789,7 @@
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58">
@@ -1809,7 +1812,7 @@
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59">
@@ -1832,7 +1835,7 @@
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60">
@@ -1855,7 +1858,7 @@
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61">
@@ -1863,7 +1866,7 @@
         <v>78</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>27</v>
@@ -1872,18 +1875,18 @@
         <v>79</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>26</v>
@@ -1892,7 +1895,7 @@
         <v>27</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>29</v>
@@ -1901,12 +1904,12 @@
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>30</v>
@@ -1915,7 +1918,7 @@
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>31</v>
@@ -1924,12 +1927,12 @@
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>34</v>
@@ -1938,7 +1941,7 @@
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>35</v>
@@ -1947,12 +1950,12 @@
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>36</v>
@@ -1961,7 +1964,7 @@
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>37</v>
@@ -1970,21 +1973,21 @@
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>39</v>
@@ -1993,21 +1996,21 @@
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>41</v>
@@ -2016,21 +2019,21 @@
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>43</v>
@@ -2039,21 +2042,21 @@
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>45</v>
@@ -2062,21 +2065,21 @@
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>47</v>
@@ -2085,21 +2088,21 @@
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>49</v>
@@ -2108,12 +2111,12 @@
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>50</v>
@@ -2122,7 +2125,7 @@
         <v>27</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>51</v>
@@ -2131,21 +2134,21 @@
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>53</v>
@@ -2154,21 +2157,21 @@
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>55</v>
@@ -2177,21 +2180,21 @@
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>57</v>
@@ -2200,21 +2203,21 @@
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>59</v>
@@ -2223,21 +2226,21 @@
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>61</v>
@@ -2246,21 +2249,21 @@
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>63</v>
@@ -2269,21 +2272,21 @@
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>65</v>
@@ -2292,21 +2295,21 @@
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>67</v>
@@ -2315,21 +2318,21 @@
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>69</v>
@@ -2338,81 +2341,81 @@
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>70</v>
@@ -2421,7 +2424,7 @@
         <v>27</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>71</v>
@@ -2430,12 +2433,12 @@
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>72</v>
@@ -2444,7 +2447,7 @@
         <v>27</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>73</v>
@@ -2453,12 +2456,12 @@
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>74</v>
@@ -2467,7 +2470,7 @@
         <v>27</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>75</v>
@@ -2476,12 +2479,12 @@
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>76</v>
@@ -2490,7 +2493,7 @@
         <v>27</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>77</v>
@@ -2499,47 +2502,47 @@
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2550,19 +2553,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2573,19 +2576,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2596,19 +2599,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2619,19 +2622,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2642,19 +2645,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2665,19 +2668,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2688,19 +2691,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2711,19 +2714,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2734,19 +2737,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2757,19 +2760,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_014.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_014.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="133">
   <si>
     <t>Sezione</t>
   </si>
@@ -116,6 +116,12 @@
     <t>codiceFiscale</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -275,10 +281,7 @@
     <t>Comune di nascita - Descrizione</t>
   </si>
   <si>
-    <t>Nazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -466,7 +469,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -742,7 +745,7 @@
         <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>28</v>
@@ -834,7 +837,7 @@
         <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>28</v>
@@ -949,7 +952,7 @@
         <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>28</v>
@@ -1041,7 +1044,7 @@
         <v>60</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>28</v>
@@ -1242,191 +1245,191 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C34" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="E38" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>85</v>
@@ -1435,21 +1438,21 @@
         <v>27</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>86</v>
@@ -1458,1160 +1461,1160 @@
         <v>27</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="E90" s="2" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="E91" s="2" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="E92" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2622,19 +2625,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2645,19 +2648,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2668,19 +2671,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2691,19 +2694,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2714,19 +2717,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2737,19 +2740,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2760,24 +2763,93 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E100" s="2" t="s">
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F100" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G100" s="2" t="s">
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_014.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_014.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="135">
   <si>
     <t>Sezione</t>
   </si>
@@ -186,6 +186,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato Residenza</t>
@@ -469,7 +475,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H103"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1021,7 +1027,7 @@
         <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>28</v>
@@ -1044,7 +1050,7 @@
         <v>60</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>28</v>
@@ -1268,375 +1274,375 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C35" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="E40" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>92</v>
@@ -1645,21 +1651,21 @@
         <v>27</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>93</v>
@@ -1668,21 +1674,21 @@
         <v>27</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>94</v>
@@ -1691,21 +1697,21 @@
         <v>27</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>95</v>
@@ -1714,21 +1720,21 @@
         <v>27</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>96</v>
@@ -1737,412 +1743,412 @@
         <v>27</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D65" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>87</v>
@@ -2151,21 +2157,21 @@
         <v>27</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>88</v>
@@ -2174,113 +2180,113 @@
         <v>27</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>91</v>
@@ -2289,315 +2295,315 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="93">
@@ -2605,22 +2611,22 @@
         <v>107</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="E93" s="2" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="94">
@@ -2628,22 +2634,22 @@
         <v>107</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="95">
@@ -2651,39 +2657,39 @@
         <v>107</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2694,19 +2700,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2717,19 +2723,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2740,19 +2746,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2763,19 +2769,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2786,19 +2792,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2809,19 +2815,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2832,24 +2838,93 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2" t="s">
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E103" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G103" s="2" t="s">
+      <c r="B106" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_014.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_014.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="137">
   <si>
     <t>Sezione</t>
   </si>
@@ -288,6 +288,12 @@
   </si>
   <si>
     <t>Nazionalità - Descrizione</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -475,7 +481,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H106"/>
+  <dimension ref="A1:H108"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1622,7 +1628,7 @@
         <v>82</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>27</v>
@@ -1631,7 +1637,7 @@
         <v>83</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1645,7 +1651,7 @@
         <v>82</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>27</v>
@@ -1654,7 +1660,7 @@
         <v>83</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1668,7 +1674,7 @@
         <v>82</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>27</v>
@@ -1677,7 +1683,7 @@
         <v>83</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1691,7 +1697,7 @@
         <v>82</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>27</v>
@@ -1700,7 +1706,7 @@
         <v>83</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1714,7 +1720,7 @@
         <v>82</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>27</v>
@@ -1723,7 +1729,7 @@
         <v>83</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1737,7 +1743,7 @@
         <v>82</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>27</v>
@@ -1746,7 +1752,7 @@
         <v>83</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1760,7 +1766,7 @@
         <v>82</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>27</v>
@@ -1769,7 +1775,7 @@
         <v>83</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1783,7 +1789,7 @@
         <v>82</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>27</v>
@@ -1792,7 +1798,7 @@
         <v>83</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1806,16 +1812,16 @@
         <v>82</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>83</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1875,16 +1881,16 @@
         <v>82</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>83</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1898,7 +1904,7 @@
         <v>82</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>27</v>
@@ -1907,7 +1913,7 @@
         <v>83</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1921,7 +1927,7 @@
         <v>82</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>27</v>
@@ -1930,7 +1936,7 @@
         <v>83</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1944,7 +1950,7 @@
         <v>82</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>27</v>
@@ -1953,7 +1959,7 @@
         <v>83</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1967,7 +1973,7 @@
         <v>82</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>27</v>
@@ -1976,7 +1982,7 @@
         <v>83</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1987,19 +1993,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C66" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2010,19 +2016,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2033,19 +2039,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2056,19 +2062,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2079,19 +2085,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2102,19 +2108,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2125,19 +2131,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2148,19 +2154,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2171,19 +2177,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2194,19 +2200,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2217,19 +2223,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2240,19 +2246,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2263,19 +2269,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2286,19 +2292,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2309,19 +2315,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2332,7 +2338,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>92</v>
@@ -2341,10 +2347,10 @@
         <v>27</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2355,19 +2361,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2378,7 +2384,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>94</v>
@@ -2387,10 +2393,10 @@
         <v>27</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2401,7 +2407,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>95</v>
@@ -2410,10 +2416,10 @@
         <v>27</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2424,7 +2430,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>96</v>
@@ -2433,10 +2439,10 @@
         <v>27</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2447,7 +2453,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>97</v>
@@ -2456,10 +2462,10 @@
         <v>27</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2470,7 +2476,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>98</v>
@@ -2479,10 +2485,10 @@
         <v>27</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2493,19 +2499,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2516,19 +2522,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2539,19 +2545,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2562,19 +2568,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2585,19 +2591,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2608,19 +2614,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2631,19 +2637,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2654,19 +2660,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2680,22 +2686,22 @@
         <v>109</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="97">
@@ -2703,39 +2709,39 @@
         <v>109</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2746,19 +2752,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2769,19 +2775,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2792,19 +2798,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2815,19 +2821,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2838,19 +2844,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2861,19 +2867,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2884,19 +2890,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2907,24 +2913,70 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="2" t="s">
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E106" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G106" s="2" t="s">
+      <c r="B108" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_014.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_014.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="141">
   <si>
     <t>Sezione</t>
   </si>
@@ -345,6 +345,18 @@
   </si>
   <si>
     <t>evento.padre</t>
+  </si>
+  <si>
+    <t>Madre biologica</t>
+  </si>
+  <si>
+    <t>evento.madreBiologica</t>
+  </si>
+  <si>
+    <t>Padre biologico</t>
+  </si>
+  <si>
+    <t>evento.padreBiologico</t>
   </si>
   <si>
     <t>Sentenza Tribunale Italiano</t>
@@ -481,7 +493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H108"/>
+  <dimension ref="A1:H170"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2732,22 +2744,22 @@
         <v>111</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="E98" s="2" t="s">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="99">
@@ -2755,22 +2767,22 @@
         <v>111</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>116</v>
+        <v>31</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="100">
@@ -2778,22 +2790,22 @@
         <v>111</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>118</v>
+        <v>35</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="101">
@@ -2801,22 +2813,22 @@
         <v>111</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>120</v>
+        <v>37</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="102">
@@ -2824,22 +2836,22 @@
         <v>111</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>121</v>
+        <v>38</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="103">
@@ -2847,22 +2859,22 @@
         <v>111</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="104">
@@ -2870,113 +2882,1539 @@
         <v>111</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>130</v>
+        <v>45</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>132</v>
+        <v>47</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>134</v>
+        <v>49</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B165" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="C165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B168" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E108" s="2" t="s">
+      <c r="C168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E168" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F108" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G108" s="2" t="s">
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_014.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_014.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="165">
   <si>
     <t>Sezione</t>
   </si>
@@ -357,6 +357,78 @@
   </si>
   <si>
     <t>evento.padreBiologico</t>
+  </si>
+  <si>
+    <t>Atto nascita intestatario</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>evento.eventoCollegato</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
   </si>
   <si>
     <t>Sentenza Tribunale Italiano</t>
@@ -493,14 +565,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H170"/>
+  <dimension ref="A1:H182"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="25.390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="32.41796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="24.79296875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
@@ -4173,7 +4245,7 @@
         <v>116</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>117</v>
@@ -4185,7 +4257,7 @@
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="161">
@@ -4196,7 +4268,7 @@
         <v>119</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>117</v>
@@ -4208,7 +4280,7 @@
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="162">
@@ -4219,7 +4291,7 @@
         <v>121</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>117</v>
@@ -4231,7 +4303,7 @@
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="163">
@@ -4242,7 +4314,7 @@
         <v>123</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>117</v>
@@ -4254,7 +4326,7 @@
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="164">
@@ -4265,7 +4337,7 @@
         <v>125</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>117</v>
@@ -4277,7 +4349,7 @@
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="165">
@@ -4288,19 +4360,19 @@
         <v>127</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="166">
@@ -4308,113 +4380,389 @@
         <v>115</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B168" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B168" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="C168" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="B170" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E170" s="2" t="s">
+      <c r="B172" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F170" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G170" s="2" t="s">
+      <c r="C172" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_014.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_014.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="167">
   <si>
     <t>Sezione</t>
   </si>
@@ -258,6 +258,12 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Residenza al momento dell'evento originario</t>
+  </si>
+  <si>
+    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>Madre</t>
@@ -565,14 +571,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H182"/>
+  <dimension ref="A1:H183"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="25.390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="24.79296875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
@@ -1387,559 +1393,559 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C36" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="E41" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>103</v>
@@ -1948,7 +1954,7 @@
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>104</v>
@@ -1957,12 +1963,12 @@
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>105</v>
@@ -1971,7 +1977,7 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>106</v>
@@ -1980,679 +1986,679 @@
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C67" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D67" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>103</v>
@@ -2661,7 +2667,7 @@
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>104</v>
@@ -2670,12 +2676,12 @@
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>105</v>
@@ -2684,7 +2690,7 @@
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>106</v>
@@ -2693,122 +2699,122 @@
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="98">
@@ -2816,7 +2822,7 @@
         <v>111</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>27</v>
@@ -2825,547 +2831,547 @@
         <v>112</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>103</v>
@@ -3374,7 +3380,7 @@
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>104</v>
@@ -3383,12 +3389,12 @@
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>105</v>
@@ -3397,7 +3403,7 @@
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>106</v>
@@ -3406,122 +3412,122 @@
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="129">
@@ -3529,7 +3535,7 @@
         <v>113</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>27</v>
@@ -3538,547 +3544,547 @@
         <v>114</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>103</v>
@@ -4087,7 +4093,7 @@
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>104</v>
@@ -4096,12 +4102,12 @@
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>105</v>
@@ -4110,7 +4116,7 @@
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>106</v>
@@ -4119,122 +4125,122 @@
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="160">
@@ -4242,36 +4248,36 @@
         <v>115</v>
       </c>
       <c r="B160" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D160" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C160" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="E160" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B161" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D161" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>120</v>
@@ -4280,12 +4286,12 @@
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>121</v>
@@ -4294,7 +4300,7 @@
         <v>27</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>122</v>
@@ -4303,12 +4309,12 @@
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>123</v>
@@ -4317,7 +4323,7 @@
         <v>27</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>124</v>
@@ -4326,12 +4332,12 @@
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>125</v>
@@ -4340,7 +4346,7 @@
         <v>27</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>126</v>
@@ -4349,12 +4355,12 @@
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>127</v>
@@ -4363,44 +4369,44 @@
         <v>27</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>130</v>
@@ -4409,44 +4415,44 @@
         <v>27</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>133</v>
@@ -4455,7 +4461,7 @@
         <v>27</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>134</v>
@@ -4464,12 +4470,12 @@
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>135</v>
@@ -4478,7 +4484,7 @@
         <v>27</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>136</v>
@@ -4487,12 +4493,12 @@
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>137</v>
@@ -4501,7 +4507,7 @@
         <v>27</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>138</v>
@@ -4510,44 +4516,44 @@
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B172" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="C172" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E172" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C172" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B173" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>144</v>
@@ -4561,7 +4567,7 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>145</v>
@@ -4570,7 +4576,7 @@
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>146</v>
@@ -4584,7 +4590,7 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>147</v>
@@ -4593,7 +4599,7 @@
         <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>148</v>
@@ -4607,7 +4613,7 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>149</v>
@@ -4616,7 +4622,7 @@
         <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>150</v>
@@ -4630,7 +4636,7 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>151</v>
@@ -4639,7 +4645,7 @@
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>152</v>
@@ -4653,7 +4659,7 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>153</v>
@@ -4662,7 +4668,7 @@
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>154</v>
@@ -4676,19 +4682,19 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B179" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="C179" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E179" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
@@ -4699,16 +4705,16 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B180" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D180" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>160</v>
@@ -4722,7 +4728,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>161</v>
@@ -4731,7 +4737,7 @@
         <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>162</v>
@@ -4745,7 +4751,7 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>163</v>
@@ -4754,7 +4760,7 @@
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>164</v>
@@ -4763,6 +4769,29 @@
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_014.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_014.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="165">
   <si>
     <t>Sezione</t>
   </si>
@@ -258,12 +258,6 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
-  </si>
-  <si>
-    <t>Residenza al momento dell'evento originario</t>
-  </si>
-  <si>
-    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>Madre</t>
@@ -571,14 +565,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H183"/>
+  <dimension ref="A1:H182"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="25.390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="24.79296875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
@@ -1393,559 +1387,559 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>103</v>
@@ -1954,7 +1948,7 @@
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>104</v>
@@ -1963,12 +1957,12 @@
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>105</v>
@@ -1977,7 +1971,7 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>106</v>
@@ -1986,679 +1980,679 @@
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>103</v>
@@ -2667,7 +2661,7 @@
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>104</v>
@@ -2676,12 +2670,12 @@
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>105</v>
@@ -2690,7 +2684,7 @@
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>106</v>
@@ -2699,122 +2693,122 @@
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="98">
@@ -2822,7 +2816,7 @@
         <v>111</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>27</v>
@@ -2831,547 +2825,547 @@
         <v>112</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>103</v>
@@ -3380,7 +3374,7 @@
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>104</v>
@@ -3389,12 +3383,12 @@
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>105</v>
@@ -3403,7 +3397,7 @@
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>106</v>
@@ -3412,122 +3406,122 @@
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="129">
@@ -3535,7 +3529,7 @@
         <v>113</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>27</v>
@@ -3544,547 +3538,547 @@
         <v>114</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B152" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E152" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>103</v>
@@ -4093,7 +4087,7 @@
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>104</v>
@@ -4102,12 +4096,12 @@
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>105</v>
@@ -4116,7 +4110,7 @@
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>106</v>
@@ -4125,122 +4119,122 @@
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="160">
@@ -4248,36 +4242,36 @@
         <v>115</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D161" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>120</v>
@@ -4286,12 +4280,12 @@
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>121</v>
@@ -4300,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>122</v>
@@ -4309,12 +4303,12 @@
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>123</v>
@@ -4323,7 +4317,7 @@
         <v>27</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>124</v>
@@ -4332,12 +4326,12 @@
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>125</v>
@@ -4346,7 +4340,7 @@
         <v>27</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>126</v>
@@ -4355,12 +4349,12 @@
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>127</v>
@@ -4369,44 +4363,44 @@
         <v>27</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D166" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="E166" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C166" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>130</v>
@@ -4415,44 +4409,44 @@
         <v>27</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D168" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="E168" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C168" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>133</v>
@@ -4461,7 +4455,7 @@
         <v>27</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>134</v>
@@ -4470,12 +4464,12 @@
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>135</v>
@@ -4484,7 +4478,7 @@
         <v>27</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>136</v>
@@ -4493,12 +4487,12 @@
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>137</v>
@@ -4507,7 +4501,7 @@
         <v>27</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>138</v>
@@ -4516,44 +4510,44 @@
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>144</v>
@@ -4567,7 +4561,7 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>145</v>
@@ -4576,7 +4570,7 @@
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>146</v>
@@ -4590,7 +4584,7 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>147</v>
@@ -4599,7 +4593,7 @@
         <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>148</v>
@@ -4613,7 +4607,7 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>149</v>
@@ -4622,7 +4616,7 @@
         <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>150</v>
@@ -4636,7 +4630,7 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>151</v>
@@ -4645,7 +4639,7 @@
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>152</v>
@@ -4659,7 +4653,7 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>153</v>
@@ -4668,7 +4662,7 @@
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>154</v>
@@ -4682,19 +4676,19 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
@@ -4705,16 +4699,16 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D180" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>160</v>
@@ -4728,7 +4722,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>161</v>
@@ -4737,7 +4731,7 @@
         <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>162</v>
@@ -4751,7 +4745,7 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>163</v>
@@ -4760,7 +4754,7 @@
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>164</v>
@@ -4769,29 +4763,6 @@
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G183" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_014.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_014.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="171">
   <si>
     <t>Sezione</t>
   </si>
@@ -126,6 +126,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -571,7 +583,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H183"/>
+  <dimension ref="A1:H193"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -893,7 +905,7 @@
         <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>28</v>
@@ -916,7 +928,7 @@
         <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>28</v>
@@ -962,7 +974,7 @@
         <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>28</v>
@@ -985,7 +997,7 @@
         <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>28</v>
@@ -1077,7 +1089,7 @@
         <v>54</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>28</v>
@@ -1100,7 +1112,7 @@
         <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>28</v>
@@ -1123,7 +1135,7 @@
         <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>28</v>
@@ -1146,7 +1158,7 @@
         <v>60</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>28</v>
@@ -1416,421 +1428,421 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C37" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="E44" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>98</v>
@@ -1839,44 +1851,44 @@
         <v>27</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>100</v>
@@ -1885,21 +1897,21 @@
         <v>27</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>101</v>
@@ -1908,21 +1920,21 @@
         <v>27</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>102</v>
@@ -1931,527 +1943,527 @@
         <v>27</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>94</v>
@@ -2460,44 +2472,44 @@
         <v>27</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>96</v>
@@ -2506,329 +2518,329 @@
         <v>27</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>110</v>
@@ -2837,1961 +2849,2191 @@
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>29</v>
+        <v>112</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D104" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E104" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>35</v>
+        <v>112</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>150</v>
+        <v>17</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>154</v>
+        <v>20</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B188" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B183" s="2" t="s">
+      <c r="C188" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B191" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C183" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E183" s="2" t="s">
+      <c r="C191" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E191" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F183" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G183" s="2" t="s">
+      <c r="F191" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G193" s="2" t="s">
         <v>18</v>
       </c>
     </row>
